--- a/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/income_statements.xlsx
+++ b/Financial Modelling Prep Library/Company Financial Data/AAPL/annual/income_statements.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="231">
   <si>
     <t>date</t>
   </si>
@@ -136,6 +136,78 @@
     <t>index</t>
   </si>
   <si>
+    <t>AAPL-FY-1989</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1990</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1991</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1992</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1993</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1994</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1995</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1996</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1997</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1998</t>
+  </si>
+  <si>
+    <t>AAPL-FY-1999</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2000</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2001</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2002</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2003</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2004</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2005</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2006</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2007</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2008</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2009</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2010</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2011</t>
+  </si>
+  <si>
+    <t>AAPL-FY-2012</t>
+  </si>
+  <si>
     <t>AAPL-FY-2013</t>
   </si>
   <si>
@@ -175,6 +247,78 @@
     <t>0000320193</t>
   </si>
   <si>
+    <t>1989-09-30</t>
+  </si>
+  <si>
+    <t>1990-09-30</t>
+  </si>
+  <si>
+    <t>1991-09-30</t>
+  </si>
+  <si>
+    <t>1992-09-30</t>
+  </si>
+  <si>
+    <t>1993-09-30</t>
+  </si>
+  <si>
+    <t>1994-12-13</t>
+  </si>
+  <si>
+    <t>1995-12-19</t>
+  </si>
+  <si>
+    <t>1996-12-19</t>
+  </si>
+  <si>
+    <t>1997-12-05</t>
+  </si>
+  <si>
+    <t>1998-09-25</t>
+  </si>
+  <si>
+    <t>1999-12-22</t>
+  </si>
+  <si>
+    <t>2000-12-14</t>
+  </si>
+  <si>
+    <t>2001-12-21</t>
+  </si>
+  <si>
+    <t>2002-12-19</t>
+  </si>
+  <si>
+    <t>2003-12-19</t>
+  </si>
+  <si>
+    <t>2004-12-03</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-12-29</t>
+  </si>
+  <si>
+    <t>2007-11-15</t>
+  </si>
+  <si>
+    <t>2008-11-05</t>
+  </si>
+  <si>
+    <t>2009-10-27</t>
+  </si>
+  <si>
+    <t>2010-10-27</t>
+  </si>
+  <si>
+    <t>2011-10-26</t>
+  </si>
+  <si>
+    <t>2012-10-31</t>
+  </si>
+  <si>
     <t>2013-10-30</t>
   </si>
   <si>
@@ -205,6 +349,78 @@
     <t>2022-10-27</t>
   </si>
   <si>
+    <t>1989-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1990-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1991-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1992-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1993-09-29 20:00:00</t>
+  </si>
+  <si>
+    <t>1994-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>1995-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1996-12-19 00:00:00</t>
+  </si>
+  <si>
+    <t>1997-12-05 00:00:00</t>
+  </si>
+  <si>
+    <t>1998-09-24 20:00:00</t>
+  </si>
+  <si>
+    <t>1999-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>2000-12-14 00:00:00</t>
+  </si>
+  <si>
+    <t>2001-12-21 00:00:00</t>
+  </si>
+  <si>
+    <t>2002-12-19 17:20:21</t>
+  </si>
+  <si>
+    <t>2003-12-19 17:25:45</t>
+  </si>
+  <si>
+    <t>2004-12-02 18:05:49</t>
+  </si>
+  <si>
+    <t>2005-11-30 21:22:48</t>
+  </si>
+  <si>
+    <t>2006-12-29 06:05:58</t>
+  </si>
+  <si>
+    <t>2007-11-15 16:49:37</t>
+  </si>
+  <si>
+    <t>2008-11-05 06:16:23</t>
+  </si>
+  <si>
+    <t>2009-10-27 16:18:29</t>
+  </si>
+  <si>
+    <t>2010-10-27 16:36:21</t>
+  </si>
+  <si>
+    <t>2011-10-26 16:35:25</t>
+  </si>
+  <si>
+    <t>2012-10-31 17:07:19</t>
+  </si>
+  <si>
     <t>2013-10-29 20:38:28</t>
   </si>
   <si>
@@ -235,6 +451,78 @@
     <t>2022-10-27 18:01:14</t>
   </si>
   <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2013</t>
   </si>
   <si>
@@ -268,6 +556,60 @@
     <t>FY</t>
   </si>
   <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019394000016/0000320193-94-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019395000016/0000320193-95-000016-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000032019396000023/0000320193-96-000023-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746997006960/0001047469-97-006960-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205799010244/0000912057-99-010244-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/0000912057-00-053623-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205701544436/a2066171z10-k405.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/0001047469-02-007674-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746903041604/a2124888z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746904035975/a2147337z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465905058421/a05-20674_110k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000110465906084288/a06-25759_210k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/0001047469-07-009340-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/0001193125-08-224958-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/0001193125-09-214859-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/0001193125-10-238044-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/0001193125-11-282113-index.html</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/0001193125-12-444068-index.html</t>
+  </si>
+  <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/0001193125-13-416534-index.html</t>
   </si>
   <si>
@@ -296,6 +638,45 @@
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000032019322000108/0000320193-22-000108-index.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-94-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-95-000016.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000320193-96-000023.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0001047469-97-006960.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/0000912057-99-010244.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000091205700053623/a2032880z10-k.txt</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746902007674/a2096490z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000104746907009340/a2181030z10-k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312508224958/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312509214859/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312510238044/d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312511282113/d220209d10k.htm</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/Archives/edgar/data/320193/000119312512444068/d411355d10k.htm</t>
   </si>
   <si>
     <t>https://www.sec.gov/Archives/edgar/data/320193/000119312513416534/d590790d10k.htm</t>
@@ -700,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -833,43 +1214,43 @@
         <v>40</v>
       </c>
       <c r="B2" s="2">
-        <v>41545</v>
+        <v>32781</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J2">
-        <v>170910000000</v>
+        <v>5284000000</v>
       </c>
       <c r="K2">
-        <v>106606000000</v>
+        <v>2570000000</v>
       </c>
       <c r="L2">
-        <v>64304000000</v>
+        <v>2714000000</v>
       </c>
       <c r="M2">
-        <v>0.3762448072084723</v>
+        <v>0.5136260408781226</v>
       </c>
       <c r="N2">
-        <v>4475000000</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -878,76 +1259,70 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10830000000</v>
+        <v>1954900000</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>124800000</v>
       </c>
       <c r="S2">
-        <v>15305000000</v>
+        <v>2079700000</v>
       </c>
       <c r="T2">
-        <v>121911000000</v>
+        <v>4649700000</v>
       </c>
       <c r="U2">
-        <v>1616000000</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>136000000</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>6757000000</v>
+        <v>124800000</v>
       </c>
       <c r="X2">
-        <v>57048000000</v>
+        <v>869100000</v>
       </c>
       <c r="Y2">
-        <v>0.3337897138845006</v>
+        <v>0.1644776684330053</v>
       </c>
       <c r="Z2">
-        <v>48999000000</v>
+        <v>634300000</v>
       </c>
       <c r="AA2">
-        <v>0.2866947516236616</v>
+        <v>0.1200416351249054</v>
       </c>
       <c r="AB2">
-        <v>1156000000</v>
+        <v>110000000</v>
       </c>
       <c r="AC2">
-        <v>50155000000</v>
+        <v>744300000</v>
       </c>
       <c r="AD2">
-        <v>0.293458545433269</v>
+        <v>0.1408591975775927</v>
       </c>
       <c r="AE2">
-        <v>13118000000</v>
+        <v>290300000</v>
       </c>
       <c r="AF2">
-        <v>37037000000</v>
+        <v>454000000</v>
       </c>
       <c r="AG2">
-        <v>0.2167046983792639</v>
+        <v>0.08591975775927328</v>
       </c>
       <c r="AH2">
-        <v>1.429643</v>
+        <v>0.031607</v>
       </c>
       <c r="AI2">
-        <v>1.419643</v>
+        <v>0.031607</v>
       </c>
       <c r="AJ2">
-        <v>25909268000</v>
+        <v>14363841808</v>
       </c>
       <c r="AK2">
-        <v>26086536000</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>94</v>
+        <v>14363841808</v>
       </c>
       <c r="AN2">
-        <v>25906467558.68423</v>
+        <v>14363906729.52194</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -955,43 +1330,43 @@
         <v>41</v>
       </c>
       <c r="B3" s="2">
-        <v>41909</v>
+        <v>33146</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J3">
-        <v>182795000000</v>
+        <v>5558400000</v>
       </c>
       <c r="K3">
-        <v>112258000000</v>
+        <v>2403500000</v>
       </c>
       <c r="L3">
-        <v>70537000000</v>
+        <v>3154900000</v>
       </c>
       <c r="M3">
-        <v>0.3858803577778386</v>
+        <v>0.5675913932066782</v>
       </c>
       <c r="N3">
-        <v>6041000000</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1000,76 +1375,70 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11993000000</v>
+        <v>2240200000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>202700000</v>
       </c>
       <c r="S3">
-        <v>18034000000</v>
+        <v>2442900000</v>
       </c>
       <c r="T3">
-        <v>130292000000</v>
+        <v>4846400000</v>
       </c>
       <c r="U3">
-        <v>1795000000</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>384000000</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>7946000000</v>
+        <v>202700000</v>
       </c>
       <c r="X3">
-        <v>61813000000</v>
+        <v>981200000</v>
       </c>
       <c r="Y3">
-        <v>0.3381547635329194</v>
+        <v>0.1765256188831318</v>
       </c>
       <c r="Z3">
-        <v>52503000000</v>
+        <v>712000000</v>
       </c>
       <c r="AA3">
-        <v>0.2872233923247354</v>
+        <v>0.1280944156591825</v>
       </c>
       <c r="AB3">
-        <v>980000000</v>
+        <v>66500000</v>
       </c>
       <c r="AC3">
-        <v>53483000000</v>
+        <v>778500000</v>
       </c>
       <c r="AD3">
-        <v>0.2925845892940179</v>
+        <v>0.1400582901554404</v>
       </c>
       <c r="AE3">
-        <v>13973000000</v>
+        <v>303600000</v>
       </c>
       <c r="AF3">
-        <v>39510000000</v>
+        <v>474900000</v>
       </c>
       <c r="AG3">
-        <v>0.2161437676085232</v>
+        <v>0.08543825561312608</v>
       </c>
       <c r="AH3">
-        <v>1.6225</v>
+        <v>0.03375</v>
       </c>
       <c r="AI3">
-        <v>1.6125</v>
+        <v>0.03375</v>
       </c>
       <c r="AJ3">
-        <v>24342288000</v>
+        <v>14071111111</v>
       </c>
       <c r="AK3">
-        <v>24490652000</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>95</v>
+        <v>14071111111</v>
       </c>
       <c r="AN3">
-        <v>24351309707.24191</v>
+        <v>14071111111.11111</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1077,43 +1446,43 @@
         <v>42</v>
       </c>
       <c r="B4" s="2">
-        <v>42273</v>
+        <v>33511</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J4">
-        <v>233715000000</v>
+        <v>6308800000</v>
       </c>
       <c r="K4">
-        <v>140089000000</v>
+        <v>3109700000</v>
       </c>
       <c r="L4">
-        <v>93626000000</v>
+        <v>3199100000</v>
       </c>
       <c r="M4">
-        <v>0.4005990201741437</v>
+        <v>0.5070853411108294</v>
       </c>
       <c r="N4">
-        <v>8067000000</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1122,76 +1491,70 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14329000000</v>
+        <v>2547400000</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>204400000</v>
       </c>
       <c r="S4">
-        <v>22396000000</v>
+        <v>2751800000</v>
       </c>
       <c r="T4">
-        <v>162485000000</v>
+        <v>5861500000</v>
       </c>
       <c r="U4">
-        <v>2921000000</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>733000000</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>11257000000</v>
+        <v>204400000</v>
       </c>
       <c r="X4">
-        <v>84505000000</v>
+        <v>704100000</v>
       </c>
       <c r="Y4">
-        <v>0.3615728558286802</v>
+        <v>0.111606010651788</v>
       </c>
       <c r="Z4">
-        <v>71230000000</v>
+        <v>447300000</v>
       </c>
       <c r="AA4">
-        <v>0.3047729071732666</v>
+        <v>0.07090096373319807</v>
       </c>
       <c r="AB4">
-        <v>1285000000</v>
+        <v>52400000</v>
       </c>
       <c r="AC4">
-        <v>72515000000</v>
+        <v>499700000</v>
       </c>
       <c r="AD4">
-        <v>0.3102710566288001</v>
+        <v>0.07920682221658636</v>
       </c>
       <c r="AE4">
-        <v>19121000000</v>
+        <v>189900000</v>
       </c>
       <c r="AF4">
-        <v>53394000000</v>
+        <v>309800000</v>
       </c>
       <c r="AG4">
-        <v>0.2284577369873564</v>
+        <v>0.04910601065178798</v>
       </c>
       <c r="AH4">
-        <v>2.32</v>
+        <v>0.023036</v>
       </c>
       <c r="AI4">
-        <v>2.305</v>
+        <v>0.023036</v>
       </c>
       <c r="AJ4">
-        <v>23013684000</v>
+        <v>13448682171</v>
       </c>
       <c r="AK4">
-        <v>23172276000</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>96</v>
+        <v>13448682171</v>
       </c>
       <c r="AN4">
-        <v>23014655172.4138</v>
+        <v>13448515367.25126</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -1199,43 +1562,43 @@
         <v>43</v>
       </c>
       <c r="B5" s="2">
-        <v>42637</v>
+        <v>33877</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J5">
-        <v>215639000000</v>
+        <v>7086500000</v>
       </c>
       <c r="K5">
-        <v>131376000000</v>
+        <v>3774200000</v>
       </c>
       <c r="L5">
-        <v>84263000000</v>
+        <v>3312300000</v>
       </c>
       <c r="M5">
-        <v>0.3907595564809705</v>
+        <v>0.4674098638255839</v>
       </c>
       <c r="N5">
-        <v>10045000000</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1244,76 +1607,70 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14194000000</v>
+        <v>2289400000</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>217200000</v>
       </c>
       <c r="S5">
-        <v>24239000000</v>
+        <v>2506600000</v>
       </c>
       <c r="T5">
-        <v>155615000000</v>
+        <v>6280800000</v>
       </c>
       <c r="U5">
-        <v>3999000000</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1456000000</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>10505000000</v>
+        <v>217200000</v>
       </c>
       <c r="X5">
-        <v>73333000000</v>
+        <v>1072700000</v>
       </c>
       <c r="Y5">
-        <v>0.340072992362235</v>
+        <v>0.1513723276652791</v>
       </c>
       <c r="Z5">
-        <v>60024000000</v>
+        <v>805700000</v>
       </c>
       <c r="AA5">
-        <v>0.2783541010670612</v>
+        <v>0.1136950539758696</v>
       </c>
       <c r="AB5">
-        <v>1348000000</v>
+        <v>49800000</v>
       </c>
       <c r="AC5">
-        <v>61372000000</v>
+        <v>855500000</v>
       </c>
       <c r="AD5">
-        <v>0.284605289395703</v>
+        <v>0.1207225005291752</v>
       </c>
       <c r="AE5">
-        <v>15685000000</v>
+        <v>325100000</v>
       </c>
       <c r="AF5">
-        <v>45687000000</v>
+        <v>530400000</v>
       </c>
       <c r="AG5">
-        <v>0.211867983064288</v>
+        <v>0.07484653919424257</v>
       </c>
       <c r="AH5">
-        <v>2.0875</v>
+        <v>0.03875</v>
       </c>
       <c r="AI5">
-        <v>2.0775</v>
+        <v>0.03875</v>
       </c>
       <c r="AJ5">
-        <v>21883280000</v>
+        <v>13687741935</v>
       </c>
       <c r="AK5">
-        <v>22001124000</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>97</v>
+        <v>13687741935</v>
       </c>
       <c r="AN5">
-        <v>21885988023.9521</v>
+        <v>13687741935.48387</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -1321,43 +1678,43 @@
         <v>44</v>
       </c>
       <c r="B6" s="2">
-        <v>43008</v>
+        <v>34242</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J6">
-        <v>229234000000</v>
+        <v>7977000000</v>
       </c>
       <c r="K6">
-        <v>141048000000</v>
+        <v>5082700000</v>
       </c>
       <c r="L6">
-        <v>88186000000</v>
+        <v>2894300000</v>
       </c>
       <c r="M6">
-        <v>0.384698604918991</v>
+        <v>0.3628306380844929</v>
       </c>
       <c r="N6">
-        <v>11581000000</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1366,76 +1723,70 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15261000000</v>
+        <v>2617800000</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>166100000</v>
       </c>
       <c r="S6">
-        <v>26842000000</v>
+        <v>2783900000</v>
       </c>
       <c r="T6">
-        <v>167890000000</v>
+        <v>7866600000</v>
       </c>
       <c r="U6">
-        <v>5201000000</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>2323000000</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>10157000000</v>
+        <v>166100000</v>
       </c>
       <c r="X6">
-        <v>76569000000</v>
+        <v>305800000</v>
       </c>
       <c r="Y6">
-        <v>0.3340211312458012</v>
+        <v>0.03833521373950106</v>
       </c>
       <c r="Z6">
-        <v>61344000000</v>
+        <v>110400000</v>
       </c>
       <c r="AA6">
-        <v>0.2676042820872994</v>
+        <v>0.01383978939450921</v>
       </c>
       <c r="AB6">
-        <v>2745000000</v>
+        <v>29300000</v>
       </c>
       <c r="AC6">
-        <v>64089000000</v>
+        <v>139700000</v>
       </c>
       <c r="AD6">
-        <v>0.2795789455316401</v>
+        <v>0.01751284944214617</v>
       </c>
       <c r="AE6">
-        <v>15738000000</v>
+        <v>53100000</v>
       </c>
       <c r="AF6">
-        <v>48351000000</v>
+        <v>86600000</v>
       </c>
       <c r="AG6">
-        <v>0.2109242084507534</v>
+        <v>0.01085621160837408</v>
       </c>
       <c r="AH6">
-        <v>2.3175</v>
+        <v>0.006607</v>
       </c>
       <c r="AI6">
-        <v>2.3025</v>
+        <v>0.006607</v>
       </c>
       <c r="AJ6">
-        <v>20868968000</v>
+        <v>13107027027</v>
       </c>
       <c r="AK6">
-        <v>21006768000</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>98</v>
+        <v>13107027027</v>
       </c>
       <c r="AN6">
-        <v>20863430420.71198</v>
+        <v>13107310428.33359</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1443,43 +1794,43 @@
         <v>45</v>
       </c>
       <c r="B7" s="2">
-        <v>43372</v>
+        <v>34607</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J7">
-        <v>265595000000</v>
+        <v>9188748000</v>
       </c>
       <c r="K7">
-        <v>163756000000</v>
+        <v>6844915000</v>
       </c>
       <c r="L7">
-        <v>101839000000</v>
+        <v>2343833000</v>
       </c>
       <c r="M7">
-        <v>0.383437188200079</v>
+        <v>0.2550764260811157</v>
       </c>
       <c r="N7">
-        <v>14236000000</v>
+        <v>564303000</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1488,76 +1839,76 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16705000000</v>
+        <v>1384111000</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>30941000000</v>
+        <v>1948414000</v>
       </c>
       <c r="T7">
-        <v>194697000000</v>
+        <v>8793329000</v>
       </c>
       <c r="U7">
-        <v>5686000000</v>
+        <v>43284000</v>
       </c>
       <c r="V7">
-        <v>3240000000</v>
+        <v>39653000</v>
       </c>
       <c r="W7">
-        <v>10903000000</v>
+        <v>167958000</v>
       </c>
       <c r="X7">
-        <v>87046000000</v>
+        <v>707897000</v>
       </c>
       <c r="Y7">
-        <v>0.327739603531693</v>
+        <v>0.07703954880469026</v>
       </c>
       <c r="Z7">
-        <v>70898000000</v>
+        <v>522274000</v>
       </c>
       <c r="AA7">
-        <v>0.2669402661947702</v>
+        <v>0.05683842891327524</v>
       </c>
       <c r="AB7">
-        <v>2005000000</v>
+        <v>-21988000</v>
       </c>
       <c r="AC7">
-        <v>72903000000</v>
+        <v>500286000</v>
       </c>
       <c r="AD7">
-        <v>0.2744893540917562</v>
+        <v>0.05444550225993792</v>
       </c>
       <c r="AE7">
-        <v>13372000000</v>
+        <v>190108000</v>
       </c>
       <c r="AF7">
-        <v>59531000000</v>
+        <v>310178000</v>
       </c>
       <c r="AG7">
-        <v>0.2241420207458725</v>
+        <v>0.03375628540471455</v>
       </c>
       <c r="AH7">
-        <v>3.0025</v>
+        <v>0.023304</v>
       </c>
       <c r="AI7">
-        <v>2.9775</v>
+        <v>0.023304</v>
       </c>
       <c r="AJ7">
-        <v>19821508000</v>
+        <v>13298320000</v>
       </c>
       <c r="AK7">
-        <v>20000436000</v>
+        <v>13306720000</v>
       </c>
       <c r="AL7" s="3" t="s">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="AN7">
-        <v>19827144046.62781</v>
+        <v>13310075523.51528</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -1565,43 +1916,43 @@
         <v>46</v>
       </c>
       <c r="B8" s="2">
-        <v>43736</v>
+        <v>34971</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J8">
-        <v>260174000000</v>
+        <v>11062000000</v>
       </c>
       <c r="K8">
-        <v>161782000000</v>
+        <v>8204000000</v>
       </c>
       <c r="L8">
-        <v>98392000000</v>
+        <v>2858000000</v>
       </c>
       <c r="M8">
-        <v>0.3781776810903472</v>
+        <v>0.2583619598625926</v>
       </c>
       <c r="N8">
-        <v>16217000000</v>
+        <v>614000000</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1610,76 +1961,76 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18245000000</v>
+        <v>1583000000</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>34462000000</v>
+        <v>2197000000</v>
       </c>
       <c r="T8">
-        <v>196244000000</v>
+        <v>10401000000</v>
       </c>
       <c r="U8">
-        <v>4961000000</v>
+        <v>100000000</v>
       </c>
       <c r="V8">
-        <v>3576000000</v>
+        <v>48000000</v>
       </c>
       <c r="W8">
-        <v>12547000000</v>
+        <v>127000000</v>
       </c>
       <c r="X8">
-        <v>81860000000</v>
+        <v>849000000</v>
       </c>
       <c r="Y8">
-        <v>0.3146355900282119</v>
+        <v>0.07674923160368831</v>
       </c>
       <c r="Z8">
-        <v>63930000000</v>
+        <v>684000000</v>
       </c>
       <c r="AA8">
-        <v>0.2457201718849693</v>
+        <v>0.06183330320014464</v>
       </c>
       <c r="AB8">
-        <v>1807000000</v>
+        <v>-10000000</v>
       </c>
       <c r="AC8">
-        <v>65737000000</v>
+        <v>674000000</v>
       </c>
       <c r="AD8">
-        <v>0.2526655238417367</v>
+        <v>0.06092930753932381</v>
       </c>
       <c r="AE8">
-        <v>10481000000</v>
+        <v>250000000</v>
       </c>
       <c r="AF8">
-        <v>55256000000</v>
+        <v>424000000</v>
       </c>
       <c r="AG8">
-        <v>0.2123809450598446</v>
+        <v>0.03832941601880311</v>
       </c>
       <c r="AH8">
-        <v>2.9925</v>
+        <v>0.030804</v>
       </c>
       <c r="AI8">
-        <v>2.9725</v>
+        <v>0.030804</v>
       </c>
       <c r="AJ8">
-        <v>18471336000</v>
+        <v>13781264000</v>
       </c>
       <c r="AK8">
-        <v>18595652000</v>
+        <v>13781264000</v>
       </c>
       <c r="AL8" s="3" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="AM8" s="3" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="AN8">
-        <v>18464828738.51295</v>
+        <v>13764446175.82132</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1687,43 +2038,43 @@
         <v>47</v>
       </c>
       <c r="B9" s="2">
-        <v>44100</v>
+        <v>35335</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J9">
-        <v>274515000000</v>
+        <v>9833000000</v>
       </c>
       <c r="K9">
-        <v>169559000000</v>
+        <v>8865000000</v>
       </c>
       <c r="L9">
-        <v>104956000000</v>
+        <v>968000000</v>
       </c>
       <c r="M9">
-        <v>0.3823324772781087</v>
+        <v>0.09844401505135768</v>
       </c>
       <c r="N9">
-        <v>18752000000</v>
+        <v>604000000</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1732,76 +2083,76 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19916000000</v>
+        <v>1568000000</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>38668000000</v>
+        <v>2172000000</v>
       </c>
       <c r="T9">
-        <v>208227000000</v>
+        <v>11037000000</v>
       </c>
       <c r="U9">
-        <v>3763000000</v>
+        <v>60000000</v>
       </c>
       <c r="V9">
-        <v>2873000000</v>
+        <v>60000000</v>
       </c>
       <c r="W9">
-        <v>11056000000</v>
+        <v>156000000</v>
       </c>
       <c r="X9">
-        <v>81020000000</v>
+        <v>-1079000000</v>
       </c>
       <c r="Y9">
-        <v>0.2951386991603373</v>
+        <v>-0.1097325333062138</v>
       </c>
       <c r="Z9">
-        <v>66288000000</v>
+        <v>-1383000000</v>
       </c>
       <c r="AA9">
-        <v>0.2414731435440686</v>
+        <v>-0.1406488355537476</v>
       </c>
       <c r="AB9">
-        <v>803000000</v>
+        <v>88000000</v>
       </c>
       <c r="AC9">
-        <v>67091000000</v>
+        <v>-1295000000</v>
       </c>
       <c r="AD9">
-        <v>0.2443983024607034</v>
+        <v>-0.1316993796399878</v>
       </c>
       <c r="AE9">
-        <v>9680000000</v>
+        <v>-479000000</v>
       </c>
       <c r="AF9">
-        <v>57411000000</v>
+        <v>-816000000</v>
       </c>
       <c r="AG9">
-        <v>0.2091361127807224</v>
+        <v>-0.08298586392759076</v>
       </c>
       <c r="AH9">
-        <v>3.31</v>
+        <v>-0.058839</v>
       </c>
       <c r="AI9">
-        <v>3.28</v>
+        <v>-0.058839</v>
       </c>
       <c r="AJ9">
-        <v>17352119000</v>
+        <v>13858208000</v>
       </c>
       <c r="AK9">
-        <v>17528214000</v>
+        <v>13858208000</v>
       </c>
       <c r="AL9" s="3" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="AM9" s="3" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="AN9">
-        <v>17344712990.93655</v>
+        <v>13868352623.26008</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1809,43 +2160,43 @@
         <v>48</v>
       </c>
       <c r="B10" s="2">
-        <v>44464</v>
+        <v>35699</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="J10">
-        <v>365817000000</v>
+        <v>7081000000</v>
       </c>
       <c r="K10">
-        <v>212981000000</v>
+        <v>5713000000</v>
       </c>
       <c r="L10">
-        <v>152836000000</v>
+        <v>1368000000</v>
       </c>
       <c r="M10">
-        <v>0.4177935962516778</v>
+        <v>0.1931930518288377</v>
       </c>
       <c r="N10">
-        <v>21914000000</v>
+        <v>860000000</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1854,76 +2205,76 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>21973000000</v>
+        <v>1286000000</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>43887000000</v>
+        <v>2146000000</v>
       </c>
       <c r="T10">
-        <v>256868000000</v>
+        <v>7859000000</v>
       </c>
       <c r="U10">
-        <v>2843000000</v>
+        <v>82000000</v>
       </c>
       <c r="V10">
-        <v>2645000000</v>
+        <v>71000000</v>
       </c>
       <c r="W10">
-        <v>11284000000</v>
+        <v>118000000</v>
       </c>
       <c r="X10">
-        <v>123136000000</v>
+        <v>-856000000</v>
       </c>
       <c r="Y10">
-        <v>0.3366054612005456</v>
+        <v>-0.1208868803841265</v>
       </c>
       <c r="Z10">
-        <v>108949000000</v>
+        <v>-1070000000</v>
       </c>
       <c r="AA10">
-        <v>0.2978237752756159</v>
+        <v>-0.1511086004801582</v>
       </c>
       <c r="AB10">
-        <v>258000000</v>
+        <v>25000000</v>
       </c>
       <c r="AC10">
-        <v>109207000000</v>
+        <v>-1045000000</v>
       </c>
       <c r="AD10">
-        <v>0.2985290459437369</v>
+        <v>-0.1475780257025844</v>
       </c>
       <c r="AE10">
-        <v>14527000000</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>94680000000</v>
+        <v>-1045000000</v>
       </c>
       <c r="AG10">
-        <v>0.2588179335569424</v>
+        <v>-0.1475780257025844</v>
       </c>
       <c r="AH10">
-        <v>5.67</v>
+        <v>-0.074018</v>
       </c>
       <c r="AI10">
-        <v>5.61</v>
+        <v>-0.074018</v>
       </c>
       <c r="AJ10">
-        <v>16701272000</v>
+        <v>14118944000</v>
       </c>
       <c r="AK10">
-        <v>16864919000</v>
+        <v>14118944000</v>
       </c>
       <c r="AL10" s="3" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="AM10" s="3" t="s">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="AN10">
-        <v>16698412698.4127</v>
+        <v>14118187467.91321</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1931,145 +2282,3103 @@
         <v>49</v>
       </c>
       <c r="B11" s="2">
+        <v>36063</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" t="s">
+        <v>179</v>
+      </c>
+      <c r="J11">
+        <v>5941000000</v>
+      </c>
+      <c r="K11">
+        <v>4462000000</v>
+      </c>
+      <c r="L11">
+        <v>1479000000</v>
+      </c>
+      <c r="M11">
+        <v>0.2489479885541155</v>
+      </c>
+      <c r="N11">
+        <v>310000000</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>908000000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1218000000</v>
+      </c>
+      <c r="T11">
+        <v>5680000000</v>
+      </c>
+      <c r="U11">
+        <v>100000000</v>
+      </c>
+      <c r="V11">
+        <v>62000000</v>
+      </c>
+      <c r="W11">
+        <v>111000000</v>
+      </c>
+      <c r="X11">
+        <v>502000000</v>
+      </c>
+      <c r="Y11">
+        <v>0.08449755933344555</v>
+      </c>
+      <c r="Z11">
+        <v>261000000</v>
+      </c>
+      <c r="AA11">
+        <v>0.04393199798013803</v>
+      </c>
+      <c r="AB11">
+        <v>68000000</v>
+      </c>
+      <c r="AC11">
+        <v>329000000</v>
+      </c>
+      <c r="AD11">
+        <v>0.05537788251136173</v>
+      </c>
+      <c r="AE11">
+        <v>20000000</v>
+      </c>
+      <c r="AF11">
+        <v>309000000</v>
+      </c>
+      <c r="AG11">
+        <v>0.05201144588453122</v>
+      </c>
+      <c r="AH11">
+        <v>0.020893</v>
+      </c>
+      <c r="AI11">
+        <v>0.01875</v>
+      </c>
+      <c r="AJ11">
+        <v>14781088000</v>
+      </c>
+      <c r="AK11">
+        <v>18806704000</v>
+      </c>
+      <c r="AN11">
+        <v>14789642463.98315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>36428</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12">
+        <v>6134000000</v>
+      </c>
+      <c r="K12">
+        <v>4438000000</v>
+      </c>
+      <c r="L12">
+        <v>1696000000</v>
+      </c>
+      <c r="M12">
+        <v>0.2764916856863384</v>
+      </c>
+      <c r="N12">
+        <v>314000000</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>996000000</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1310000000</v>
+      </c>
+      <c r="T12">
+        <v>5748000000</v>
+      </c>
+      <c r="U12">
+        <v>144000000</v>
+      </c>
+      <c r="V12">
+        <v>47000000</v>
+      </c>
+      <c r="W12">
+        <v>85000000</v>
+      </c>
+      <c r="X12">
+        <v>808000000</v>
+      </c>
+      <c r="Y12">
+        <v>0.1317248125203782</v>
+      </c>
+      <c r="Z12">
+        <v>359000000</v>
+      </c>
+      <c r="AA12">
+        <v>0.05852624714704923</v>
+      </c>
+      <c r="AB12">
+        <v>317000000</v>
+      </c>
+      <c r="AC12">
+        <v>676000000</v>
+      </c>
+      <c r="AD12">
+        <v>0.1102054124551679</v>
+      </c>
+      <c r="AE12">
+        <v>75000000</v>
+      </c>
+      <c r="AF12">
+        <v>601000000</v>
+      </c>
+      <c r="AG12">
+        <v>0.09797848059993479</v>
+      </c>
+      <c r="AH12">
+        <v>0.0375</v>
+      </c>
+      <c r="AI12">
+        <v>0.032232</v>
+      </c>
+      <c r="AJ12">
+        <v>16033584000</v>
+      </c>
+      <c r="AK12">
+        <v>19506368000</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM12" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AN12">
+        <v>16026666666.66667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2">
+        <v>36799</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13">
+        <v>7983000000</v>
+      </c>
+      <c r="K13">
+        <v>5817000000</v>
+      </c>
+      <c r="L13">
+        <v>2166000000</v>
+      </c>
+      <c r="M13">
+        <v>0.271326568959038</v>
+      </c>
+      <c r="N13">
+        <v>380000000</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1166000000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1546000000</v>
+      </c>
+      <c r="T13">
+        <v>7363000000</v>
+      </c>
+      <c r="U13">
+        <v>210000000</v>
+      </c>
+      <c r="V13">
+        <v>21000000</v>
+      </c>
+      <c r="W13">
+        <v>84000000</v>
+      </c>
+      <c r="X13">
+        <v>1197000000</v>
+      </c>
+      <c r="Y13">
+        <v>0.1499436302142052</v>
+      </c>
+      <c r="Z13">
+        <v>522000000</v>
+      </c>
+      <c r="AA13">
+        <v>0.06538895152198422</v>
+      </c>
+      <c r="AB13">
+        <v>570000000</v>
+      </c>
+      <c r="AC13">
+        <v>1092000000</v>
+      </c>
+      <c r="AD13">
+        <v>0.1367906801954153</v>
+      </c>
+      <c r="AE13">
+        <v>306000000</v>
+      </c>
+      <c r="AF13">
+        <v>786000000</v>
+      </c>
+      <c r="AG13">
+        <v>0.09845922585494175</v>
+      </c>
+      <c r="AH13">
+        <v>0.043214</v>
+      </c>
+      <c r="AI13">
+        <v>0.038929</v>
+      </c>
+      <c r="AJ13">
+        <v>18175808000</v>
+      </c>
+      <c r="AK13">
+        <v>20178144000</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM13" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN13">
+        <v>18188550006.94219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>37163</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" t="s">
+        <v>179</v>
+      </c>
+      <c r="J14">
+        <v>5363000000</v>
+      </c>
+      <c r="K14">
+        <v>4128000000</v>
+      </c>
+      <c r="L14">
+        <v>1235000000</v>
+      </c>
+      <c r="M14">
+        <v>0.2302815588290136</v>
+      </c>
+      <c r="N14">
+        <v>441000000</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1138000000</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1579000000</v>
+      </c>
+      <c r="T14">
+        <v>5707000000</v>
+      </c>
+      <c r="U14">
+        <v>218000000</v>
+      </c>
+      <c r="V14">
+        <v>16000000</v>
+      </c>
+      <c r="W14">
+        <v>102000000</v>
+      </c>
+      <c r="X14">
+        <v>78000000</v>
+      </c>
+      <c r="Y14">
+        <v>0.01454409845235875</v>
+      </c>
+      <c r="Z14">
+        <v>-344000000</v>
+      </c>
+      <c r="AA14">
+        <v>-0.06414320343091554</v>
+      </c>
+      <c r="AB14">
+        <v>292000000</v>
+      </c>
+      <c r="AC14">
+        <v>-52000000</v>
+      </c>
+      <c r="AD14">
+        <v>-0.009696065634905836</v>
+      </c>
+      <c r="AE14">
+        <v>-15000000</v>
+      </c>
+      <c r="AF14">
+        <v>-25000000</v>
+      </c>
+      <c r="AG14">
+        <v>-0.004661570016781652</v>
+      </c>
+      <c r="AH14">
+        <v>-0.00125</v>
+      </c>
+      <c r="AI14">
+        <v>-0.00125</v>
+      </c>
+      <c r="AJ14">
+        <v>19354328000</v>
+      </c>
+      <c r="AK14">
+        <v>19354328000</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM14" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN14">
+        <v>20000000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2">
+        <v>37527</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15">
+        <v>5742000000</v>
+      </c>
+      <c r="K15">
+        <v>4139000000</v>
+      </c>
+      <c r="L15">
+        <v>1603000000</v>
+      </c>
+      <c r="M15">
+        <v>0.2791710205503309</v>
+      </c>
+      <c r="N15">
+        <v>447000000</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1111000000</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1558000000</v>
+      </c>
+      <c r="T15">
+        <v>5697000000</v>
+      </c>
+      <c r="U15">
+        <v>118000000</v>
+      </c>
+      <c r="V15">
+        <v>11000000</v>
+      </c>
+      <c r="W15">
+        <v>118000000</v>
+      </c>
+      <c r="X15">
+        <v>216000000</v>
+      </c>
+      <c r="Y15">
+        <v>0.03761755485893417</v>
+      </c>
+      <c r="Z15">
+        <v>17000000</v>
+      </c>
+      <c r="AA15">
+        <v>0.002960640891675374</v>
+      </c>
+      <c r="AB15">
+        <v>70000000</v>
+      </c>
+      <c r="AC15">
+        <v>87000000</v>
+      </c>
+      <c r="AD15">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="AE15">
+        <v>22000000</v>
+      </c>
+      <c r="AF15">
+        <v>65000000</v>
+      </c>
+      <c r="AG15">
+        <v>0.01132009752699408</v>
+      </c>
+      <c r="AH15">
+        <v>0.003214</v>
+      </c>
+      <c r="AI15">
+        <v>0.003214</v>
+      </c>
+      <c r="AJ15">
+        <v>19881232000</v>
+      </c>
+      <c r="AK15">
+        <v>20259960000</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AN15">
+        <v>20224019912.88115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>37891</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16">
+        <v>6207000000</v>
+      </c>
+      <c r="K16">
+        <v>4499000000</v>
+      </c>
+      <c r="L16">
+        <v>1708000000</v>
+      </c>
+      <c r="M16">
+        <v>0.2751731915579185</v>
+      </c>
+      <c r="N16">
+        <v>471000000</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1212000000</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1683000000</v>
+      </c>
+      <c r="T16">
+        <v>6182000000</v>
+      </c>
+      <c r="U16">
+        <v>69000000</v>
+      </c>
+      <c r="V16">
+        <v>8000000</v>
+      </c>
+      <c r="W16">
+        <v>113000000</v>
+      </c>
+      <c r="X16">
+        <v>214000000</v>
+      </c>
+      <c r="Y16">
+        <v>0.03447720315772515</v>
+      </c>
+      <c r="Z16">
+        <v>-1000000</v>
+      </c>
+      <c r="AA16">
+        <v>-0.0001611084259706783</v>
+      </c>
+      <c r="AB16">
+        <v>93000000</v>
+      </c>
+      <c r="AC16">
+        <v>92000000</v>
+      </c>
+      <c r="AD16">
+        <v>0.0148219751893024</v>
+      </c>
+      <c r="AE16">
+        <v>24000000</v>
+      </c>
+      <c r="AF16">
+        <v>69000000</v>
+      </c>
+      <c r="AG16">
+        <v>0.0111164813919768</v>
+      </c>
+      <c r="AH16">
+        <v>0.003393</v>
+      </c>
+      <c r="AI16">
+        <v>0.003393</v>
+      </c>
+      <c r="AJ16">
+        <v>20195336000</v>
+      </c>
+      <c r="AK16">
+        <v>20354096000</v>
+      </c>
+      <c r="AL16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN16">
+        <v>20335985853.22723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>38255</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17">
+        <v>8279000000</v>
+      </c>
+      <c r="K17">
+        <v>6020000000</v>
+      </c>
+      <c r="L17">
+        <v>2259000000</v>
+      </c>
+      <c r="M17">
+        <v>0.2728590409469743</v>
+      </c>
+      <c r="N17">
+        <v>489000000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1421000000</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1910000000</v>
+      </c>
+      <c r="T17">
+        <v>7930000000</v>
+      </c>
+      <c r="U17">
+        <v>64000000</v>
+      </c>
+      <c r="V17">
+        <v>3000000</v>
+      </c>
+      <c r="W17">
+        <v>150000000</v>
+      </c>
+      <c r="X17">
+        <v>536000000</v>
+      </c>
+      <c r="Y17">
+        <v>0.0647421186133591</v>
+      </c>
+      <c r="Z17">
+        <v>326000000</v>
+      </c>
+      <c r="AA17">
+        <v>0.03937673632081169</v>
+      </c>
+      <c r="AB17">
+        <v>57000000</v>
+      </c>
+      <c r="AC17">
+        <v>383000000</v>
+      </c>
+      <c r="AD17">
+        <v>0.04626162580021742</v>
+      </c>
+      <c r="AE17">
+        <v>107000000</v>
+      </c>
+      <c r="AF17">
+        <v>276000000</v>
+      </c>
+      <c r="AG17">
+        <v>0.03333735958449088</v>
+      </c>
+      <c r="AH17">
+        <v>0.013214</v>
+      </c>
+      <c r="AI17">
+        <v>0.012679</v>
+      </c>
+      <c r="AJ17">
+        <v>20809040000</v>
+      </c>
+      <c r="AK17">
+        <v>21689416000</v>
+      </c>
+      <c r="AL17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM17" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN17">
+        <v>20886938095.95883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38619</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18">
+        <v>13931000000</v>
+      </c>
+      <c r="K18">
+        <v>9888000000</v>
+      </c>
+      <c r="L18">
+        <v>4043000000</v>
+      </c>
+      <c r="M18">
+        <v>0.2902160648912497</v>
+      </c>
+      <c r="N18">
+        <v>534000000</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1859000000</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>2393000000</v>
+      </c>
+      <c r="T18">
+        <v>12281000000</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>179000000</v>
+      </c>
+      <c r="X18">
+        <v>1994000000</v>
+      </c>
+      <c r="Y18">
+        <v>0.1431340176584595</v>
+      </c>
+      <c r="Z18">
+        <v>1650000000</v>
+      </c>
+      <c r="AA18">
+        <v>0.1184408872299189</v>
+      </c>
+      <c r="AB18">
+        <v>165000000</v>
+      </c>
+      <c r="AC18">
+        <v>1815000000</v>
+      </c>
+      <c r="AD18">
+        <v>0.1302849759529108</v>
+      </c>
+      <c r="AE18">
+        <v>480000000</v>
+      </c>
+      <c r="AF18">
+        <v>1335000000</v>
+      </c>
+      <c r="AG18">
+        <v>0.09582944512238892</v>
+      </c>
+      <c r="AH18">
+        <v>0.058929</v>
+      </c>
+      <c r="AI18">
+        <v>0.055714</v>
+      </c>
+      <c r="AJ18">
+        <v>22636292000</v>
+      </c>
+      <c r="AK18">
+        <v>23989840000</v>
+      </c>
+      <c r="AL18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN18">
+        <v>22654380695.41312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2">
+        <v>38990</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19">
+        <v>19315000000</v>
+      </c>
+      <c r="K19">
+        <v>13717000000</v>
+      </c>
+      <c r="L19">
+        <v>5598000000</v>
+      </c>
+      <c r="M19">
+        <v>0.2898265596686513</v>
+      </c>
+      <c r="N19">
+        <v>712000000</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>2433000000</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3145000000</v>
+      </c>
+      <c r="T19">
+        <v>16862000000</v>
+      </c>
+      <c r="U19">
+        <v>394000000</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>225000000</v>
+      </c>
+      <c r="X19">
+        <v>3043000000</v>
+      </c>
+      <c r="Y19">
+        <v>0.1575459487444991</v>
+      </c>
+      <c r="Z19">
+        <v>2453000000</v>
+      </c>
+      <c r="AA19">
+        <v>0.1269997411338338</v>
+      </c>
+      <c r="AB19">
+        <v>365000000</v>
+      </c>
+      <c r="AC19">
+        <v>2818000000</v>
+      </c>
+      <c r="AD19">
+        <v>0.1458969712658555</v>
+      </c>
+      <c r="AE19">
+        <v>829000000</v>
+      </c>
+      <c r="AF19">
+        <v>1989000000</v>
+      </c>
+      <c r="AG19">
+        <v>0.1029769609112089</v>
+      </c>
+      <c r="AH19">
+        <v>0.084286</v>
+      </c>
+      <c r="AI19">
+        <v>0.081071</v>
+      </c>
+      <c r="AJ19">
+        <v>23633624000</v>
+      </c>
+      <c r="AK19">
+        <v>24570728000</v>
+      </c>
+      <c r="AL19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM19" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AN19">
+        <v>23598225090.76241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40">
+      <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2">
+        <v>39354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20">
+        <v>24006000000</v>
+      </c>
+      <c r="K20">
+        <v>15852000000</v>
+      </c>
+      <c r="L20">
+        <v>8154000000</v>
+      </c>
+      <c r="M20">
+        <v>0.3396650837290677</v>
+      </c>
+      <c r="N20">
+        <v>782000000</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2963000000</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>3745000000</v>
+      </c>
+      <c r="T20">
+        <v>19597000000</v>
+      </c>
+      <c r="U20">
+        <v>647000000</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>317000000</v>
+      </c>
+      <c r="X20">
+        <v>5325000000</v>
+      </c>
+      <c r="Y20">
+        <v>0.2218195451137216</v>
+      </c>
+      <c r="Z20">
+        <v>4409000000</v>
+      </c>
+      <c r="AA20">
+        <v>0.1836624177289011</v>
+      </c>
+      <c r="AB20">
+        <v>599000000</v>
+      </c>
+      <c r="AC20">
+        <v>5008000000</v>
+      </c>
+      <c r="AD20">
+        <v>0.2086145130384071</v>
+      </c>
+      <c r="AE20">
+        <v>1512000000</v>
+      </c>
+      <c r="AF20">
+        <v>3496000000</v>
+      </c>
+      <c r="AG20">
+        <v>0.1456302591018912</v>
+      </c>
+      <c r="AH20">
+        <v>0.144286</v>
+      </c>
+      <c r="AI20">
+        <v>0.140357</v>
+      </c>
+      <c r="AJ20">
+        <v>24208660000</v>
+      </c>
+      <c r="AK20">
+        <v>24900176000</v>
+      </c>
+      <c r="AL20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN20">
+        <v>24229654990.7822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40">
+      <c r="A21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2">
+        <v>39718</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21">
+        <v>32479000000</v>
+      </c>
+      <c r="K21">
+        <v>21334000000</v>
+      </c>
+      <c r="L21">
+        <v>11145000000</v>
+      </c>
+      <c r="M21">
+        <v>0.3431448012561963</v>
+      </c>
+      <c r="N21">
+        <v>1109000000</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3761000000</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>4870000000</v>
+      </c>
+      <c r="T21">
+        <v>26204000000</v>
+      </c>
+      <c r="U21">
+        <v>653000000</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>473000000</v>
+      </c>
+      <c r="X21">
+        <v>7368000000</v>
+      </c>
+      <c r="Y21">
+        <v>0.2268542750700453</v>
+      </c>
+      <c r="Z21">
+        <v>6275000000</v>
+      </c>
+      <c r="AA21">
+        <v>0.1932017611379661</v>
+      </c>
+      <c r="AB21">
+        <v>620000000</v>
+      </c>
+      <c r="AC21">
+        <v>6895000000</v>
+      </c>
+      <c r="AD21">
+        <v>0.2122910188121555</v>
+      </c>
+      <c r="AE21">
+        <v>2061000000</v>
+      </c>
+      <c r="AF21">
+        <v>4834000000</v>
+      </c>
+      <c r="AG21">
+        <v>0.148834631608116</v>
+      </c>
+      <c r="AH21">
+        <v>0.195714</v>
+      </c>
+      <c r="AI21">
+        <v>0.191429</v>
+      </c>
+      <c r="AJ21">
+        <v>24684576000</v>
+      </c>
+      <c r="AK21">
+        <v>25259892000</v>
+      </c>
+      <c r="AL21" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN21">
+        <v>24699306130.37391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40082</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" t="s">
+        <v>131</v>
+      </c>
+      <c r="H22" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22">
+        <v>36537000000</v>
+      </c>
+      <c r="K22">
+        <v>23397000000</v>
+      </c>
+      <c r="L22">
+        <v>13140000000</v>
+      </c>
+      <c r="M22">
+        <v>0.3596354380491009</v>
+      </c>
+      <c r="N22">
+        <v>1333000000</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>4149000000</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>5482000000</v>
+      </c>
+      <c r="T22">
+        <v>28879000000</v>
+      </c>
+      <c r="U22">
+        <v>407000000</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>703000000</v>
+      </c>
+      <c r="X22">
+        <v>8687000000</v>
+      </c>
+      <c r="Y22">
+        <v>0.2377589840435723</v>
+      </c>
+      <c r="Z22">
+        <v>7658000000</v>
+      </c>
+      <c r="AA22">
+        <v>0.2095957522511427</v>
+      </c>
+      <c r="AB22">
+        <v>326000000</v>
+      </c>
+      <c r="AC22">
+        <v>7984000000</v>
+      </c>
+      <c r="AD22">
+        <v>0.218518214412787</v>
+      </c>
+      <c r="AE22">
+        <v>2280000000</v>
+      </c>
+      <c r="AF22">
+        <v>5704000000</v>
+      </c>
+      <c r="AG22">
+        <v>0.156115718312943</v>
+      </c>
+      <c r="AH22">
+        <v>0.228214</v>
+      </c>
+      <c r="AI22">
+        <v>0.224643</v>
+      </c>
+      <c r="AJ22">
+        <v>25004448000</v>
+      </c>
+      <c r="AK22">
+        <v>25396140000</v>
+      </c>
+      <c r="AL22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN22">
+        <v>24994084499.63631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40">
+      <c r="A23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40446</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" t="s">
+        <v>166</v>
+      </c>
+      <c r="I23" t="s">
+        <v>179</v>
+      </c>
+      <c r="J23">
+        <v>65225000000</v>
+      </c>
+      <c r="K23">
+        <v>39541000000</v>
+      </c>
+      <c r="L23">
+        <v>25684000000</v>
+      </c>
+      <c r="M23">
+        <v>0.3937753928708317</v>
+      </c>
+      <c r="N23">
+        <v>1782000000</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>5517000000</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>7299000000</v>
+      </c>
+      <c r="T23">
+        <v>46840000000</v>
+      </c>
+      <c r="U23">
+        <v>311000000</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1027000000</v>
+      </c>
+      <c r="X23">
+        <v>19567000000</v>
+      </c>
+      <c r="Y23">
+        <v>0.2999923342276735</v>
+      </c>
+      <c r="Z23">
+        <v>18385000000</v>
+      </c>
+      <c r="AA23">
+        <v>0.2818704484476811</v>
+      </c>
+      <c r="AB23">
+        <v>155000000</v>
+      </c>
+      <c r="AC23">
+        <v>18540000000</v>
+      </c>
+      <c r="AD23">
+        <v>0.2842468378689153</v>
+      </c>
+      <c r="AE23">
+        <v>4527000000</v>
+      </c>
+      <c r="AF23">
+        <v>14013000000</v>
+      </c>
+      <c r="AG23">
+        <v>0.2148409352242238</v>
+      </c>
+      <c r="AH23">
+        <v>0.550357</v>
+      </c>
+      <c r="AI23">
+        <v>0.541071</v>
+      </c>
+      <c r="AJ23">
+        <v>25464908000</v>
+      </c>
+      <c r="AK23">
+        <v>25891936000</v>
+      </c>
+      <c r="AL23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM23" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN23">
+        <v>25461654889.46266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40">
+      <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40810</v>
+      </c>
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24">
+        <v>108249000000</v>
+      </c>
+      <c r="K24">
+        <v>64431000000</v>
+      </c>
+      <c r="L24">
+        <v>43818000000</v>
+      </c>
+      <c r="M24">
+        <v>0.4047889587894576</v>
+      </c>
+      <c r="N24">
+        <v>2429000000</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7599000000</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>10028000000</v>
+      </c>
+      <c r="T24">
+        <v>74459000000</v>
+      </c>
+      <c r="U24">
+        <v>519000000</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1814000000</v>
+      </c>
+      <c r="X24">
+        <v>36019000000</v>
+      </c>
+      <c r="Y24">
+        <v>0.3327421038531534</v>
+      </c>
+      <c r="Z24">
+        <v>33790000000</v>
+      </c>
+      <c r="AA24">
+        <v>0.3121506896137609</v>
+      </c>
+      <c r="AB24">
+        <v>415000000</v>
+      </c>
+      <c r="AC24">
+        <v>34205000000</v>
+      </c>
+      <c r="AD24">
+        <v>0.3159844432743028</v>
+      </c>
+      <c r="AE24">
+        <v>8283000000</v>
+      </c>
+      <c r="AF24">
+        <v>25922000000</v>
+      </c>
+      <c r="AG24">
+        <v>0.2394664153941376</v>
+      </c>
+      <c r="AH24">
+        <v>1.001786</v>
+      </c>
+      <c r="AI24">
+        <v>0.988571</v>
+      </c>
+      <c r="AJ24">
+        <v>25879224000</v>
+      </c>
+      <c r="AK24">
+        <v>26226060000</v>
+      </c>
+      <c r="AL24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM24" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN24">
+        <v>25875785846.47819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40">
+      <c r="A25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25">
+        <v>156508000000</v>
+      </c>
+      <c r="K25">
+        <v>87846000000</v>
+      </c>
+      <c r="L25">
+        <v>68662000000</v>
+      </c>
+      <c r="M25">
+        <v>0.4387123980882766</v>
+      </c>
+      <c r="N25">
+        <v>3381000000</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>10040000000</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13421000000</v>
+      </c>
+      <c r="T25">
+        <v>101267000000</v>
+      </c>
+      <c r="U25">
+        <v>1088000000</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>3277000000</v>
+      </c>
+      <c r="X25">
+        <v>59040000000</v>
+      </c>
+      <c r="Y25">
+        <v>0.3772331126843356</v>
+      </c>
+      <c r="Z25">
+        <v>55241000000</v>
+      </c>
+      <c r="AA25">
+        <v>0.3529595931198405</v>
+      </c>
+      <c r="AB25">
+        <v>522000000</v>
+      </c>
+      <c r="AC25">
+        <v>55763000000</v>
+      </c>
+      <c r="AD25">
+        <v>0.3562948858844276</v>
+      </c>
+      <c r="AE25">
+        <v>14030000000</v>
+      </c>
+      <c r="AF25">
+        <v>41733000000</v>
+      </c>
+      <c r="AG25">
+        <v>0.2666509060239732</v>
+      </c>
+      <c r="AH25">
+        <v>1.594286</v>
+      </c>
+      <c r="AI25">
+        <v>1.576786</v>
+      </c>
+      <c r="AJ25">
+        <v>26174904000</v>
+      </c>
+      <c r="AK25">
+        <v>26469940000</v>
+      </c>
+      <c r="AL25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM25" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN25">
+        <v>26176608212.07738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" t="s">
+        <v>179</v>
+      </c>
+      <c r="J26">
+        <v>170910000000</v>
+      </c>
+      <c r="K26">
+        <v>106606000000</v>
+      </c>
+      <c r="L26">
+        <v>64304000000</v>
+      </c>
+      <c r="M26">
+        <v>0.3762448072084723</v>
+      </c>
+      <c r="N26">
+        <v>4475000000</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>10830000000</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>15305000000</v>
+      </c>
+      <c r="T26">
+        <v>121911000000</v>
+      </c>
+      <c r="U26">
+        <v>1616000000</v>
+      </c>
+      <c r="V26">
+        <v>136000000</v>
+      </c>
+      <c r="W26">
+        <v>6757000000</v>
+      </c>
+      <c r="X26">
+        <v>57048000000</v>
+      </c>
+      <c r="Y26">
+        <v>0.3337897138845006</v>
+      </c>
+      <c r="Z26">
+        <v>48999000000</v>
+      </c>
+      <c r="AA26">
+        <v>0.2866947516236616</v>
+      </c>
+      <c r="AB26">
+        <v>1156000000</v>
+      </c>
+      <c r="AC26">
+        <v>50155000000</v>
+      </c>
+      <c r="AD26">
+        <v>0.293458545433269</v>
+      </c>
+      <c r="AE26">
+        <v>13118000000</v>
+      </c>
+      <c r="AF26">
+        <v>37037000000</v>
+      </c>
+      <c r="AG26">
+        <v>0.2167046983792639</v>
+      </c>
+      <c r="AH26">
+        <v>1.429643</v>
+      </c>
+      <c r="AI26">
+        <v>1.419643</v>
+      </c>
+      <c r="AJ26">
+        <v>25909268000</v>
+      </c>
+      <c r="AK26">
+        <v>26086536000</v>
+      </c>
+      <c r="AL26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AM26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN26">
+        <v>25906467558.68423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40">
+      <c r="A27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I27" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27">
+        <v>182795000000</v>
+      </c>
+      <c r="K27">
+        <v>112258000000</v>
+      </c>
+      <c r="L27">
+        <v>70537000000</v>
+      </c>
+      <c r="M27">
+        <v>0.3858803577778386</v>
+      </c>
+      <c r="N27">
+        <v>6041000000</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>11993000000</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>18034000000</v>
+      </c>
+      <c r="T27">
+        <v>130292000000</v>
+      </c>
+      <c r="U27">
+        <v>1795000000</v>
+      </c>
+      <c r="V27">
+        <v>384000000</v>
+      </c>
+      <c r="W27">
+        <v>7946000000</v>
+      </c>
+      <c r="X27">
+        <v>61813000000</v>
+      </c>
+      <c r="Y27">
+        <v>0.3381547635329194</v>
+      </c>
+      <c r="Z27">
+        <v>52503000000</v>
+      </c>
+      <c r="AA27">
+        <v>0.2872233923247354</v>
+      </c>
+      <c r="AB27">
+        <v>980000000</v>
+      </c>
+      <c r="AC27">
+        <v>53483000000</v>
+      </c>
+      <c r="AD27">
+        <v>0.2925845892940179</v>
+      </c>
+      <c r="AE27">
+        <v>13973000000</v>
+      </c>
+      <c r="AF27">
+        <v>39510000000</v>
+      </c>
+      <c r="AG27">
+        <v>0.2161437676085232</v>
+      </c>
+      <c r="AH27">
+        <v>1.6225</v>
+      </c>
+      <c r="AI27">
+        <v>1.6125</v>
+      </c>
+      <c r="AJ27">
+        <v>24342288000</v>
+      </c>
+      <c r="AK27">
+        <v>24490652000</v>
+      </c>
+      <c r="AL27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN27">
+        <v>24351309707.24191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42273</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" t="s">
+        <v>179</v>
+      </c>
+      <c r="J28">
+        <v>233715000000</v>
+      </c>
+      <c r="K28">
+        <v>140089000000</v>
+      </c>
+      <c r="L28">
+        <v>93626000000</v>
+      </c>
+      <c r="M28">
+        <v>0.4005990201741437</v>
+      </c>
+      <c r="N28">
+        <v>8067000000</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>14329000000</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>22396000000</v>
+      </c>
+      <c r="T28">
+        <v>162485000000</v>
+      </c>
+      <c r="U28">
+        <v>2921000000</v>
+      </c>
+      <c r="V28">
+        <v>733000000</v>
+      </c>
+      <c r="W28">
+        <v>11257000000</v>
+      </c>
+      <c r="X28">
+        <v>84505000000</v>
+      </c>
+      <c r="Y28">
+        <v>0.3615728558286802</v>
+      </c>
+      <c r="Z28">
+        <v>71230000000</v>
+      </c>
+      <c r="AA28">
+        <v>0.3047729071732666</v>
+      </c>
+      <c r="AB28">
+        <v>1285000000</v>
+      </c>
+      <c r="AC28">
+        <v>72515000000</v>
+      </c>
+      <c r="AD28">
+        <v>0.3102710566288001</v>
+      </c>
+      <c r="AE28">
+        <v>19121000000</v>
+      </c>
+      <c r="AF28">
+        <v>53394000000</v>
+      </c>
+      <c r="AG28">
+        <v>0.2284577369873564</v>
+      </c>
+      <c r="AH28">
+        <v>2.32</v>
+      </c>
+      <c r="AI28">
+        <v>2.305</v>
+      </c>
+      <c r="AJ28">
+        <v>23013684000</v>
+      </c>
+      <c r="AK28">
+        <v>23172276000</v>
+      </c>
+      <c r="AL28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM28" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN28">
+        <v>23014655172.4138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42637</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29">
+        <v>215639000000</v>
+      </c>
+      <c r="K29">
+        <v>131376000000</v>
+      </c>
+      <c r="L29">
+        <v>84263000000</v>
+      </c>
+      <c r="M29">
+        <v>0.3907595564809705</v>
+      </c>
+      <c r="N29">
+        <v>10045000000</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>14194000000</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>24239000000</v>
+      </c>
+      <c r="T29">
+        <v>155615000000</v>
+      </c>
+      <c r="U29">
+        <v>3999000000</v>
+      </c>
+      <c r="V29">
+        <v>1456000000</v>
+      </c>
+      <c r="W29">
+        <v>10505000000</v>
+      </c>
+      <c r="X29">
+        <v>73333000000</v>
+      </c>
+      <c r="Y29">
+        <v>0.340072992362235</v>
+      </c>
+      <c r="Z29">
+        <v>60024000000</v>
+      </c>
+      <c r="AA29">
+        <v>0.2783541010670612</v>
+      </c>
+      <c r="AB29">
+        <v>1348000000</v>
+      </c>
+      <c r="AC29">
+        <v>61372000000</v>
+      </c>
+      <c r="AD29">
+        <v>0.284605289395703</v>
+      </c>
+      <c r="AE29">
+        <v>15685000000</v>
+      </c>
+      <c r="AF29">
+        <v>45687000000</v>
+      </c>
+      <c r="AG29">
+        <v>0.211867983064288</v>
+      </c>
+      <c r="AH29">
+        <v>2.0875</v>
+      </c>
+      <c r="AI29">
+        <v>2.0775</v>
+      </c>
+      <c r="AJ29">
+        <v>21883280000</v>
+      </c>
+      <c r="AK29">
+        <v>22001124000</v>
+      </c>
+      <c r="AL29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN29">
+        <v>21885988023.9521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="2">
+        <v>43008</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
+        <v>179</v>
+      </c>
+      <c r="J30">
+        <v>229234000000</v>
+      </c>
+      <c r="K30">
+        <v>141048000000</v>
+      </c>
+      <c r="L30">
+        <v>88186000000</v>
+      </c>
+      <c r="M30">
+        <v>0.384698604918991</v>
+      </c>
+      <c r="N30">
+        <v>11581000000</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>15261000000</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>26842000000</v>
+      </c>
+      <c r="T30">
+        <v>167890000000</v>
+      </c>
+      <c r="U30">
+        <v>5201000000</v>
+      </c>
+      <c r="V30">
+        <v>2323000000</v>
+      </c>
+      <c r="W30">
+        <v>10157000000</v>
+      </c>
+      <c r="X30">
+        <v>76569000000</v>
+      </c>
+      <c r="Y30">
+        <v>0.3340211312458012</v>
+      </c>
+      <c r="Z30">
+        <v>61344000000</v>
+      </c>
+      <c r="AA30">
+        <v>0.2676042820872994</v>
+      </c>
+      <c r="AB30">
+        <v>2745000000</v>
+      </c>
+      <c r="AC30">
+        <v>64089000000</v>
+      </c>
+      <c r="AD30">
+        <v>0.2795789455316401</v>
+      </c>
+      <c r="AE30">
+        <v>15738000000</v>
+      </c>
+      <c r="AF30">
+        <v>48351000000</v>
+      </c>
+      <c r="AG30">
+        <v>0.2109242084507534</v>
+      </c>
+      <c r="AH30">
+        <v>2.3175</v>
+      </c>
+      <c r="AI30">
+        <v>2.3025</v>
+      </c>
+      <c r="AJ30">
+        <v>20868968000</v>
+      </c>
+      <c r="AK30">
+        <v>21006768000</v>
+      </c>
+      <c r="AL30" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM30" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN30">
+        <v>20863430420.71198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2">
+        <v>43372</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+      <c r="H31" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31">
+        <v>265595000000</v>
+      </c>
+      <c r="K31">
+        <v>163756000000</v>
+      </c>
+      <c r="L31">
+        <v>101839000000</v>
+      </c>
+      <c r="M31">
+        <v>0.383437188200079</v>
+      </c>
+      <c r="N31">
+        <v>14236000000</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>16705000000</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>30941000000</v>
+      </c>
+      <c r="T31">
+        <v>194697000000</v>
+      </c>
+      <c r="U31">
+        <v>5686000000</v>
+      </c>
+      <c r="V31">
+        <v>3240000000</v>
+      </c>
+      <c r="W31">
+        <v>10903000000</v>
+      </c>
+      <c r="X31">
+        <v>87046000000</v>
+      </c>
+      <c r="Y31">
+        <v>0.327739603531693</v>
+      </c>
+      <c r="Z31">
+        <v>70898000000</v>
+      </c>
+      <c r="AA31">
+        <v>0.2669402661947702</v>
+      </c>
+      <c r="AB31">
+        <v>2005000000</v>
+      </c>
+      <c r="AC31">
+        <v>72903000000</v>
+      </c>
+      <c r="AD31">
+        <v>0.2744893540917562</v>
+      </c>
+      <c r="AE31">
+        <v>13372000000</v>
+      </c>
+      <c r="AF31">
+        <v>59531000000</v>
+      </c>
+      <c r="AG31">
+        <v>0.2241420207458725</v>
+      </c>
+      <c r="AH31">
+        <v>3.0025</v>
+      </c>
+      <c r="AI31">
+        <v>2.9775</v>
+      </c>
+      <c r="AJ31">
+        <v>19821508000</v>
+      </c>
+      <c r="AK31">
+        <v>20000436000</v>
+      </c>
+      <c r="AL31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM31" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN31">
+        <v>19827144046.62781</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="2">
+        <v>43736</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
+        <v>179</v>
+      </c>
+      <c r="J32">
+        <v>260174000000</v>
+      </c>
+      <c r="K32">
+        <v>161782000000</v>
+      </c>
+      <c r="L32">
+        <v>98392000000</v>
+      </c>
+      <c r="M32">
+        <v>0.3781776810903472</v>
+      </c>
+      <c r="N32">
+        <v>16217000000</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>18245000000</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>34462000000</v>
+      </c>
+      <c r="T32">
+        <v>196244000000</v>
+      </c>
+      <c r="U32">
+        <v>4961000000</v>
+      </c>
+      <c r="V32">
+        <v>3576000000</v>
+      </c>
+      <c r="W32">
+        <v>12547000000</v>
+      </c>
+      <c r="X32">
+        <v>81860000000</v>
+      </c>
+      <c r="Y32">
+        <v>0.3146355900282119</v>
+      </c>
+      <c r="Z32">
+        <v>63930000000</v>
+      </c>
+      <c r="AA32">
+        <v>0.2457201718849693</v>
+      </c>
+      <c r="AB32">
+        <v>1807000000</v>
+      </c>
+      <c r="AC32">
+        <v>65737000000</v>
+      </c>
+      <c r="AD32">
+        <v>0.2526655238417367</v>
+      </c>
+      <c r="AE32">
+        <v>10481000000</v>
+      </c>
+      <c r="AF32">
+        <v>55256000000</v>
+      </c>
+      <c r="AG32">
+        <v>0.2123809450598446</v>
+      </c>
+      <c r="AH32">
+        <v>2.9925</v>
+      </c>
+      <c r="AI32">
+        <v>2.9725</v>
+      </c>
+      <c r="AJ32">
+        <v>18471336000</v>
+      </c>
+      <c r="AK32">
+        <v>18595652000</v>
+      </c>
+      <c r="AL32" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM32" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN32">
+        <v>18464828738.51295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40">
+      <c r="A33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" t="s">
+        <v>176</v>
+      </c>
+      <c r="I33" t="s">
+        <v>179</v>
+      </c>
+      <c r="J33">
+        <v>274515000000</v>
+      </c>
+      <c r="K33">
+        <v>169559000000</v>
+      </c>
+      <c r="L33">
+        <v>104956000000</v>
+      </c>
+      <c r="M33">
+        <v>0.3823324772781087</v>
+      </c>
+      <c r="N33">
+        <v>18752000000</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>19916000000</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>38668000000</v>
+      </c>
+      <c r="T33">
+        <v>208227000000</v>
+      </c>
+      <c r="U33">
+        <v>3763000000</v>
+      </c>
+      <c r="V33">
+        <v>2873000000</v>
+      </c>
+      <c r="W33">
+        <v>11056000000</v>
+      </c>
+      <c r="X33">
+        <v>81020000000</v>
+      </c>
+      <c r="Y33">
+        <v>0.2951386991603373</v>
+      </c>
+      <c r="Z33">
+        <v>66288000000</v>
+      </c>
+      <c r="AA33">
+        <v>0.2414731435440686</v>
+      </c>
+      <c r="AB33">
+        <v>803000000</v>
+      </c>
+      <c r="AC33">
+        <v>67091000000</v>
+      </c>
+      <c r="AD33">
+        <v>0.2443983024607034</v>
+      </c>
+      <c r="AE33">
+        <v>9680000000</v>
+      </c>
+      <c r="AF33">
+        <v>57411000000</v>
+      </c>
+      <c r="AG33">
+        <v>0.2091361127807224</v>
+      </c>
+      <c r="AH33">
+        <v>3.31</v>
+      </c>
+      <c r="AI33">
+        <v>3.28</v>
+      </c>
+      <c r="AJ33">
+        <v>17352119000</v>
+      </c>
+      <c r="AK33">
+        <v>17528214000</v>
+      </c>
+      <c r="AL33" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN33">
+        <v>17344712990.93655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40">
+      <c r="A34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44464</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34">
+        <v>365817000000</v>
+      </c>
+      <c r="K34">
+        <v>212981000000</v>
+      </c>
+      <c r="L34">
+        <v>152836000000</v>
+      </c>
+      <c r="M34">
+        <v>0.4177935962516778</v>
+      </c>
+      <c r="N34">
+        <v>21914000000</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>21973000000</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>43887000000</v>
+      </c>
+      <c r="T34">
+        <v>256868000000</v>
+      </c>
+      <c r="U34">
+        <v>2843000000</v>
+      </c>
+      <c r="V34">
+        <v>2645000000</v>
+      </c>
+      <c r="W34">
+        <v>11284000000</v>
+      </c>
+      <c r="X34">
+        <v>123136000000</v>
+      </c>
+      <c r="Y34">
+        <v>0.3366054612005456</v>
+      </c>
+      <c r="Z34">
+        <v>108949000000</v>
+      </c>
+      <c r="AA34">
+        <v>0.2978237752756159</v>
+      </c>
+      <c r="AB34">
+        <v>258000000</v>
+      </c>
+      <c r="AC34">
+        <v>109207000000</v>
+      </c>
+      <c r="AD34">
+        <v>0.2985290459437369</v>
+      </c>
+      <c r="AE34">
+        <v>14527000000</v>
+      </c>
+      <c r="AF34">
+        <v>94680000000</v>
+      </c>
+      <c r="AG34">
+        <v>0.2588179335569424</v>
+      </c>
+      <c r="AH34">
+        <v>5.67</v>
+      </c>
+      <c r="AI34">
+        <v>5.61</v>
+      </c>
+      <c r="AJ34">
+        <v>16701272000</v>
+      </c>
+      <c r="AK34">
+        <v>16864919000</v>
+      </c>
+      <c r="AL34" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN34">
+        <v>16698412698.4127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40">
+      <c r="A35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2">
         <v>44828</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11">
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35">
         <v>394328000000</v>
       </c>
-      <c r="K11">
+      <c r="K35">
         <v>223546000000</v>
       </c>
-      <c r="L11">
+      <c r="L35">
         <v>170782000000</v>
       </c>
-      <c r="M11">
+      <c r="M35">
         <v>0.4330963056136009</v>
       </c>
-      <c r="N11">
+      <c r="N35">
         <v>26251000000</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>25094000000</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
         <v>51345000000</v>
       </c>
-      <c r="T11">
+      <c r="T35">
         <v>274891000000</v>
       </c>
-      <c r="U11">
+      <c r="U35">
         <v>2825000000</v>
       </c>
-      <c r="V11">
+      <c r="V35">
         <v>2931000000</v>
       </c>
-      <c r="W11">
+      <c r="W35">
         <v>11104000000</v>
       </c>
-      <c r="X11">
+      <c r="X35">
         <v>133138000000</v>
       </c>
-      <c r="Y11">
+      <c r="Y35">
         <v>0.3376326307033738</v>
       </c>
-      <c r="Z11">
+      <c r="Z35">
         <v>119437000000</v>
       </c>
-      <c r="AA11">
+      <c r="AA35">
         <v>0.3028874439552859</v>
       </c>
-      <c r="AB11">
+      <c r="AB35">
         <v>-334000000</v>
       </c>
-      <c r="AC11">
+      <c r="AC35">
         <v>119103000000</v>
       </c>
-      <c r="AD11">
+      <c r="AD35">
         <v>0.3020404333448297</v>
       </c>
-      <c r="AE11">
+      <c r="AE35">
         <v>19300000000</v>
       </c>
-      <c r="AF11">
+      <c r="AF35">
         <v>99803000000</v>
       </c>
-      <c r="AG11">
+      <c r="AG35">
         <v>0.2530964070519973</v>
       </c>
-      <c r="AH11">
+      <c r="AH35">
         <v>6.15</v>
       </c>
-      <c r="AI11">
+      <c r="AI35">
         <v>6.11</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ35">
         <v>16215963000</v>
       </c>
-      <c r="AK11">
+      <c r="AK35">
         <v>16325819000</v>
       </c>
-      <c r="AL11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN11">
+      <c r="AL35" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AM35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AN35">
         <v>16228130081.30081</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AL2" r:id="rId1"/>
-    <hyperlink ref="AM2" r:id="rId2"/>
-    <hyperlink ref="AL3" r:id="rId3"/>
-    <hyperlink ref="AM3" r:id="rId4"/>
-    <hyperlink ref="AL4" r:id="rId5"/>
-    <hyperlink ref="AM4" r:id="rId6"/>
-    <hyperlink ref="AL5" r:id="rId7"/>
-    <hyperlink ref="AM5" r:id="rId8"/>
-    <hyperlink ref="AL6" r:id="rId9"/>
-    <hyperlink ref="AM6" r:id="rId10"/>
-    <hyperlink ref="AL7" r:id="rId11"/>
-    <hyperlink ref="AM7" r:id="rId12"/>
-    <hyperlink ref="AL8" r:id="rId13"/>
-    <hyperlink ref="AM8" r:id="rId14"/>
-    <hyperlink ref="AL9" r:id="rId15"/>
-    <hyperlink ref="AM9" r:id="rId16"/>
-    <hyperlink ref="AL10" r:id="rId17"/>
-    <hyperlink ref="AM10" r:id="rId18"/>
-    <hyperlink ref="AL11" r:id="rId19"/>
-    <hyperlink ref="AM11" r:id="rId20"/>
+    <hyperlink ref="AL7" r:id="rId1"/>
+    <hyperlink ref="AM7" r:id="rId2"/>
+    <hyperlink ref="AL8" r:id="rId3"/>
+    <hyperlink ref="AM8" r:id="rId4"/>
+    <hyperlink ref="AL9" r:id="rId5"/>
+    <hyperlink ref="AM9" r:id="rId6"/>
+    <hyperlink ref="AL10" r:id="rId7"/>
+    <hyperlink ref="AM10" r:id="rId8"/>
+    <hyperlink ref="AL12" r:id="rId9"/>
+    <hyperlink ref="AM12" r:id="rId10"/>
+    <hyperlink ref="AL13" r:id="rId11"/>
+    <hyperlink ref="AM13" r:id="rId12"/>
+    <hyperlink ref="AL14" r:id="rId13"/>
+    <hyperlink ref="AM14" r:id="rId14"/>
+    <hyperlink ref="AL15" r:id="rId15"/>
+    <hyperlink ref="AM15" r:id="rId16"/>
+    <hyperlink ref="AL16" r:id="rId17"/>
+    <hyperlink ref="AM16" r:id="rId18"/>
+    <hyperlink ref="AL17" r:id="rId19"/>
+    <hyperlink ref="AM17" r:id="rId20"/>
+    <hyperlink ref="AL18" r:id="rId21"/>
+    <hyperlink ref="AM18" r:id="rId22"/>
+    <hyperlink ref="AL19" r:id="rId23"/>
+    <hyperlink ref="AM19" r:id="rId24"/>
+    <hyperlink ref="AL20" r:id="rId25"/>
+    <hyperlink ref="AM20" r:id="rId26"/>
+    <hyperlink ref="AL21" r:id="rId27"/>
+    <hyperlink ref="AM21" r:id="rId28"/>
+    <hyperlink ref="AL22" r:id="rId29"/>
+    <hyperlink ref="AM22" r:id="rId30"/>
+    <hyperlink ref="AL23" r:id="rId31"/>
+    <hyperlink ref="AM23" r:id="rId32"/>
+    <hyperlink ref="AL24" r:id="rId33"/>
+    <hyperlink ref="AM24" r:id="rId34"/>
+    <hyperlink ref="AL25" r:id="rId35"/>
+    <hyperlink ref="AM25" r:id="rId36"/>
+    <hyperlink ref="AL26" r:id="rId37"/>
+    <hyperlink ref="AM26" r:id="rId38"/>
+    <hyperlink ref="AL27" r:id="rId39"/>
+    <hyperlink ref="AM27" r:id="rId40"/>
+    <hyperlink ref="AL28" r:id="rId41"/>
+    <hyperlink ref="AM28" r:id="rId42"/>
+    <hyperlink ref="AL29" r:id="rId43"/>
+    <hyperlink ref="AM29" r:id="rId44"/>
+    <hyperlink ref="AL30" r:id="rId45"/>
+    <hyperlink ref="AM30" r:id="rId46"/>
+    <hyperlink ref="AL31" r:id="rId47"/>
+    <hyperlink ref="AM31" r:id="rId48"/>
+    <hyperlink ref="AL32" r:id="rId49"/>
+    <hyperlink ref="AM32" r:id="rId50"/>
+    <hyperlink ref="AL33" r:id="rId51"/>
+    <hyperlink ref="AM33" r:id="rId52"/>
+    <hyperlink ref="AL34" r:id="rId53"/>
+    <hyperlink ref="AM34" r:id="rId54"/>
+    <hyperlink ref="AL35" r:id="rId55"/>
+    <hyperlink ref="AM35" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
